--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GfeCaRTq</t>
+          <t>IXMkrg64</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="L2" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.34</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.88</v>
       </c>
       <c r="R2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.62</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.49</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>7.9</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU2" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>6</v>
-      </c>
       <c r="AV2" t="n">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="BB2" t="n">
-        <v>200</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ei0sKuIl</t>
+          <t>CKikpFyh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,134 +910,134 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.05</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L3" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>7</v>
       </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>17</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
       <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
         <v>41</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1046,43 +1046,43 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
       </c>
-      <c r="BB3" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>z7ljIJn1</t>
+          <t>Ie5xZlTj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AK4" t="n">
         <v>17</v>
       </c>
-      <c r="AF4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
       <c r="AL4" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
       </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8Y1cGcHD</t>
+          <t>0tOWRXLN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,47 +1274,47 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Patriotas</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.57</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1335,111 +1335,2113 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
+        <v>6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
-      <c r="X5" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>41</v>
-      </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="AL5" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
         <v>151</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>67</v>
       </c>
       <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hGKOTgiB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nDE6vB5T</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H7" t="n">
         <v>3.5</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4loXfWkA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
         <v>8</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
         <v>21</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AQ8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KQ43MBqo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>26</v>
       </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>151</v>
       </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
+      <c r="BA9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WzmPdhLc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>QcQctXzH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GfeCaRTq</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="W12" t="n">
+        <v>8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ltuWJeFb</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23:35</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Leones Negros</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tapatio</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ei0sKuIl</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>z7ljIJn1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>8Y1cGcHD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W16" t="n">
+        <v>13</v>
+      </c>
+      <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.13</v>
@@ -771,16 +771,16 @@
         <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
         <v>1.62</v>
@@ -795,25 +795,25 @@
         <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD2" t="n">
         <v>5.5</v>
@@ -822,34 +822,34 @@
         <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -873,19 +873,19 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>
@@ -929,34 +929,34 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.35</v>
@@ -965,10 +965,10 @@
         <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
         <v>2.2</v>
@@ -980,7 +980,7 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -1028,13 +1028,13 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1046,7 +1046,7 @@
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU3" t="n">
         <v>9.5</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,76 +1111,76 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.57</v>
       </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y4" t="n">
         <v>21</v>
       </c>
-      <c r="Y4" t="n">
-        <v>17</v>
-      </c>
       <c r="Z4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1192,61 +1192,61 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL4" t="n">
         <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AR4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS4" t="n">
         <v>501</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1335,22 +1335,22 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>6</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1362,76 +1362,76 @@
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1490,7 +1490,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1556,7 +1556,7 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1571,10 +1571,10 @@
         <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO6" t="n">
         <v>12</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1693,28 +1693,28 @@
         <v>1.67</v>
       </c>
       <c r="S7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1723,13 +1723,13 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>67</v>
@@ -1738,13 +1738,13 @@
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1756,16 +1756,16 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1774,25 +1774,25 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1869,10 +1869,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,22 +1881,22 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1908,40 +1908,40 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="n">
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
         <v>21</v>
@@ -1959,25 +1959,25 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>81</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>
       </c>
       <c r="AY8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA8" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
         <v>501</v>
@@ -2021,145 +2021,145 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
         <v>2.2</v>
       </c>
-      <c r="L9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
         <v>67</v>
       </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2203,73 +2203,73 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2284,10 +2284,10 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -2302,31 +2302,31 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
         <v>351</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2385,34 +2385,34 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2427,10 +2427,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2466,28 +2466,28 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
         <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2505,25 +2505,25 @@
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
       </c>
       <c r="AY11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA11" t="n">
         <v>201</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>251</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="I12" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2582,37 +2582,37 @@
         <v>1.95</v>
       </c>
       <c r="L12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="T12" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U12" t="n">
         <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>8</v>
@@ -2633,37 +2633,37 @@
         <v>30</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
         <v>5.3</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG12" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AL12" t="n">
         <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN12" t="n">
         <v>4.65</v>
@@ -2672,7 +2672,7 @@
         <v>14.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
         <v>60</v>
@@ -2687,19 +2687,19 @@
         <v>2.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AV12" t="n">
         <v>45</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AX12" t="n">
         <v>15.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ12" t="n">
         <v>70</v>
@@ -2708,7 +2708,7 @@
         <v>90</v>
       </c>
       <c r="BB12" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
@@ -2982,13 +2982,13 @@
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>19</v>
@@ -3000,7 +3000,7 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>19</v>
@@ -3012,28 +3012,28 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3057,13 +3057,13 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
         <v>23</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
         <v>81</v>
@@ -3125,7 +3125,7 @@
         <v>2.38</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
         <v>5</v>
@@ -3134,19 +3134,19 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
         <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3236,7 +3236,7 @@
         <v>8.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
         <v>6.5</v>
@@ -3254,7 +3254,7 @@
         <v>126</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>2.75</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -765,16 +765,16 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
         <v>2.7</v>
@@ -789,13 +789,13 @@
         <v>2.2</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
@@ -819,7 +819,7 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
         <v>12</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -971,25 +971,25 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -998,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1028,16 +1028,16 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1049,28 +1049,28 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>81</v>
       </c>
-      <c r="AW3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>101</v>
-      </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J4" t="n">
         <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.5</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1159,13 +1159,13 @@
         <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="n">
         <v>67</v>
@@ -1219,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR4" t="n">
         <v>201</v>
@@ -1237,16 +1237,16 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
         <v>67</v>
@@ -1296,10 +1296,10 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.91</v>
@@ -1311,10 +1311,10 @@
         <v>8.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1341,16 +1341,16 @@
         <v>1.53</v>
       </c>
       <c r="W5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1359,10 +1359,10 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
@@ -1401,7 +1401,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1413,13 +1413,13 @@
         <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
         <v>251</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1526,13 +1526,13 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
         <v>19</v>
@@ -1544,10 +1544,10 @@
         <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1556,16 +1556,16 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1577,7 +1577,7 @@
         <v>3.75</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
@@ -1589,7 +1589,7 @@
         <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
@@ -1601,16 +1601,16 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1687,34 +1687,34 @@
         <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1723,49 +1723,49 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1774,28 +1774,28 @@
         <v>201</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1869,10 +1869,10 @@
         <v>3.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1887,7 +1887,7 @@
         <v>1.57</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X8" t="n">
         <v>6</v>
@@ -1908,7 +1908,7 @@
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
         <v>23</v>
@@ -1920,22 +1920,22 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN8" t="n">
         <v>3.2</v>
@@ -1977,7 +1977,7 @@
         <v>201</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB8" t="n">
         <v>501</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>1.95</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -2045,16 +2045,16 @@
         <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2111,10 +2111,10 @@
         <v>23</v>
       </c>
       <c r="AK9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM9" t="n">
         <v>67</v>
@@ -2147,7 +2147,7 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.75</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="R10" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>1.67</v>
@@ -2254,25 +2254,25 @@
         <v>4.75</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2284,10 +2284,10 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -2302,19 +2302,19 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
         <v>351</v>
@@ -2329,10 +2329,10 @@
         <v>101</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.8</v>
@@ -2397,7 +2397,7 @@
         <v>2.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
@@ -2451,13 +2451,13 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF11" t="n">
         <v>81</v>
@@ -2481,19 +2481,19 @@
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2588,7 +2588,7 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>6</v>
+        <v>5.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -2752,49 +2752,49 @@
         <v>1.93</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J13" t="n">
         <v>2.55</v>
       </c>
       <c r="K13" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M13" t="n">
-        <v>9.4</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>1.05</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.83</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.87</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W13" t="n">
         <v>7.3</v>
@@ -2806,7 +2806,7 @@
         <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA13" t="n">
         <v>15</v>
@@ -2815,40 +2815,40 @@
         <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE13" t="n">
         <v>12.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="AO13" t="n">
         <v>10.25</v>
@@ -2863,34 +2863,34 @@
         <v>70</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AU13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW13" t="n">
         <v>5.8</v>
       </c>
       <c r="AX13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
         <v>120</v>
       </c>
       <c r="BA13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB13" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2949,10 +2949,10 @@
         <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -3143,10 +3143,10 @@
         <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3301,7 +3301,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J16" t="n">
         <v>6</v>
@@ -3313,22 +3313,22 @@
         <v>2.2</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3337,16 +3337,16 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
         <v>13</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
         <v>17</v>
@@ -3367,7 +3367,7 @@
         <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>67</v>
@@ -3421,10 +3421,10 @@
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -804,7 +804,7 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA2" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -750,19 +750,19 @@
         <v>1.95</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,31 +771,31 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.57</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
         <v>8</v>
@@ -810,19 +810,19 @@
         <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
         <v>201</v>
@@ -864,13 +864,13 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -882,10 +882,10 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB2" t="n">
         <v>351</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,6 +897,188 @@
         <v>51</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>z7ljIJn1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>351</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -771,16 +771,16 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K2" t="n">
         <v>1.95</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,16 +771,16 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -789,22 +789,22 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,13 +828,13 @@
         <v>9</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>11</v>
@@ -876,7 +876,7 @@
         <v>6</v>
       </c>
       <c r="AX2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
         <v>2.63</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.5</v>
-      </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
         <v>2.25</v>
@@ -798,16 +798,16 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -816,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -825,10 +825,10 @@
         <v>81</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -846,16 +846,16 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
         <v>67</v>
@@ -864,7 +864,7 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU2" t="n">
         <v>9.5</v>
@@ -873,16 +873,16 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -789,16 +789,16 @@
         <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -810,13 +810,13 @@
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -846,10 +846,10 @@
         <v>201</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -876,13 +876,13 @@
         <v>6.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -765,10 +765,10 @@
         <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -798,7 +798,7 @@
         <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>
@@ -953,10 +953,10 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,6 +1079,188 @@
         <v>51</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8Y1cGcHD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W4" t="n">
+        <v>15</v>
+      </c>
+      <c r="X4" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1141,10 +1141,10 @@
         <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1207,7 +1207,7 @@
         <v>29</v>
       </c>
       <c r="AM4" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -753,7 +753,7 @@
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.5</v>
@@ -882,7 +882,7 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA2" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,37 +596,37 @@
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ei0sKuIl</t>
+          <t>IXMkrg64</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Bucaramanga</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -771,136 +771,136 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
         <v>81</v>
       </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="BB2" t="n">
         <v>251</v>
       </c>
-      <c r="AT2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>351</v>
-      </c>
       <c r="BC2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>z7ljIJn1</t>
+          <t>CKikpFyh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>America De Cali</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Once Caldas</t>
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.73</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>10</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
         <v>6.5</v>
       </c>
-      <c r="X3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
         <v>41</v>
       </c>
-      <c r="AM3" t="n">
-        <v>351</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
         <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA3" t="n">
         <v>101</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>301</v>
       </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8Y1cGcHD</t>
+          <t>Ie5xZlTj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,1992 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Chico</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>6.25</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.25</v>
       </c>
-      <c r="L4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>6.5</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
         <v>151</v>
       </c>
       <c r="AS4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0tOWRXLN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
         <v>351</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hGKOTgiB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nDE6vB5T</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4loXfWkA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KQ43MBqo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WzmPdhLc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>QcQctXzH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Ei0sKuIl</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>z7ljIJn1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>8Y1cGcHD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.75</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
         <v>9</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV14" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW14" t="n">
         <v>3.4</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX14" t="n">
         <v>7.5</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY14" t="n">
         <v>21</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ14" t="n">
         <v>23</v>
       </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
         <v>151</v>
       </c>
-      <c r="BC4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD4" t="n">
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -971,10 +971,10 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1055,7 +1055,7 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
@@ -1064,10 +1064,10 @@
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>301</v>
@@ -1129,10 +1129,10 @@
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L8" t="n">
         <v>6</v>
       </c>
-      <c r="J8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1905,10 +1905,10 @@
         <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1920,10 +1920,10 @@
         <v>251</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
@@ -1947,10 +1947,10 @@
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -2538,7 +2538,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ei0sKuIl</t>
+          <t>GfeCaRTq</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,167 +2548,167 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="H12" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.4</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N12" t="n">
         <v>5</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N12" t="n">
-        <v>8</v>
-      </c>
       <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.44</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.53</v>
       </c>
       <c r="S12" t="n">
         <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>6.7</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>5.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>4.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="AP12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AY12" t="n">
         <v>26</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>z7ljIJn1</t>
+          <t>Ei0sKuIl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,103 +2740,103 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.38</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>51</v>
@@ -2845,52 +2845,52 @@
         <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
         <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW13" t="n">
         <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8Y1cGcHD</t>
+          <t>z7ljIJn1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,162 +2922,344 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
         <v>6.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>51</v>
-      </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AQ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8Y1cGcHD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W15" t="n">
+        <v>15</v>
+      </c>
+      <c r="X15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
         <v>3.4</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX15" t="n">
         <v>7.5</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY15" t="n">
         <v>21</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ15" t="n">
         <v>23</v>
       </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
         <v>151</v>
       </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1195,13 +1195,13 @@
         <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>19</v>
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1293,103 +1293,103 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>7</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="n">
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN5" t="n">
         <v>2.88</v>
@@ -1398,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1407,25 +1407,25 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY5" t="n">
         <v>67</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>81</v>
       </c>
       <c r="AZ5" t="n">
         <v>351</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
         <v>6.25</v>
@@ -1917,13 +1917,13 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
         <v>19</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX8" t="n">
         <v>29</v>
@@ -2051,10 +2051,10 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2588,7 +2588,7 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.75</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1159,16 +1159,16 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
         <v>41</v>
@@ -1183,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1195,34 +1195,34 @@
         <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
         <v>501</v>
@@ -1237,10 +1237,10 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1663,7 +1663,7 @@
         <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
         <v>2.05</v>
@@ -1672,13 +1672,13 @@
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1699,10 +1699,10 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1714,16 +1714,16 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1744,19 +1744,19 @@
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
         <v>7.5</v>
@@ -1777,25 +1777,25 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
       </c>
       <c r="AY7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ7" t="n">
         <v>201</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
@@ -2400,13 +2400,13 @@
         <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2427,10 +2427,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2454,7 +2454,7 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -2481,10 +2481,10 @@
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
         <v>8</v>
@@ -2514,7 +2514,7 @@
         <v>7.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -795,19 +795,19 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,28 +828,28 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
@@ -861,7 +861,7 @@
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -873,7 +873,7 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>15</v>
@@ -888,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.11</v>
@@ -980,16 +980,16 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1010,37 +1010,37 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
@@ -1058,7 +1058,7 @@
         <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1344,7 +1344,7 @@
         <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>34</v>
@@ -1401,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1419,7 +1419,7 @@
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>51</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1920,13 +1920,13 @@
         <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1935,13 +1935,13 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>3.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
@@ -1968,13 +1968,13 @@
         <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
         <v>126</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ei0sKuIl</t>
+          <t>z7ljIJn1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2740,103 +2740,103 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.8</v>
       </c>
-      <c r="H13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
       </c>
       <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
         <v>17</v>
       </c>
-      <c r="AB13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>21</v>
-      </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
         <v>51</v>
@@ -2845,52 +2845,52 @@
         <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
         <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
         <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>81</v>
       </c>
       <c r="AW13" t="n">
         <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA13" t="n">
         <v>126</v>
       </c>
-      <c r="BA13" t="n">
-        <v>151</v>
-      </c>
       <c r="BB13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>z7ljIJn1</t>
+          <t>8Y1cGcHD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,344 +2922,162 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>11</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.73</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>5</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC14" t="n">
         <v>10</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
         <v>6.5</v>
       </c>
-      <c r="X14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y14" t="n">
+      <c r="AI14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AK14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL14" t="n">
         <v>13</v>
       </c>
-      <c r="AA14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="AM14" t="n">
         <v>29</v>
       </c>
-      <c r="AC14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS14" t="n">
         <v>351</v>
       </c>
-      <c r="AH14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="AT14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU14" t="n">
         <v>9</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>8Y1cGcHD</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W15" t="n">
-        <v>15</v>
-      </c>
-      <c r="X15" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -795,19 +795,19 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,37 +828,37 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -873,19 +873,19 @@
         <v>67</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
         <v>301</v>
@@ -935,10 +935,10 @@
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -977,10 +977,10 @@
         <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -1010,10 +1010,10 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1031,7 +1031,7 @@
         <v>3.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1049,19 +1049,19 @@
         <v>2.38</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
         <v>81</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1225,7 +1225,7 @@
         <v>126</v>
       </c>
       <c r="AS4" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
         <v>2.25</v>
@@ -1311,10 +1311,10 @@
         <v>12</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1475,46 +1475,46 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
         <v>2.1</v>
@@ -1523,7 +1523,7 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
@@ -1565,7 +1565,7 @@
         <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
         <v>41</v>
@@ -1574,10 +1574,10 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1592,7 +1592,7 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1604,7 +1604,7 @@
         <v>7</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -2036,13 +2036,13 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2069,7 +2069,7 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
@@ -2087,7 +2087,7 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
         <v>8</v>
@@ -2102,7 +2102,7 @@
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
@@ -2144,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2767,13 +2767,13 @@
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
         <v>3.25</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -947,10 +947,10 @@
         <v>4.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1663,7 +1663,7 @@
         <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>2.05</v>
@@ -1681,16 +1681,16 @@
         <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1705,7 +1705,7 @@
         <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
         <v>6</v>
@@ -1744,7 +1744,7 @@
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.05</v>
@@ -2036,7 +2036,7 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2069,13 +2069,13 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
         <v>9.5</v>
@@ -2090,7 +2090,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2144,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1120,7 +1120,7 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
@@ -1129,10 +1129,10 @@
         <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1159,7 +1159,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -1192,13 +1192,13 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
         <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1.8</v>
@@ -1341,13 +1341,13 @@
         <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
         <v>4.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
         <v>7</v>
@@ -1374,22 +1374,22 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>51</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
         <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN5" t="n">
         <v>2.88</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1493,10 +1493,10 @@
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1532,7 +1532,7 @@
         <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1556,10 +1556,10 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>19</v>
@@ -1568,7 +1568,7 @@
         <v>67</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
@@ -1580,10 +1580,10 @@
         <v>8.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -2720,7 +2720,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>z7ljIJn1</t>
+          <t>ltuWJeFb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,167 +2730,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>23:35</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="W13" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AC13" t="n">
         <v>9.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AZ13" t="n">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="BB13" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8Y1cGcHD</t>
+          <t>z7ljIJn1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,162 +2922,344 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Rampla Juniors</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
         <v>6.5</v>
       </c>
-      <c r="K14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
         <v>15</v>
       </c>
-      <c r="X14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>51</v>
-      </c>
       <c r="AB14" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AF14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ14" t="n">
+      <c r="AQ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>8Y1cGcHD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W15" t="n">
+        <v>15</v>
+      </c>
+      <c r="X15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
         <v>3.4</v>
       </c>
-      <c r="AX14" t="n">
+      <c r="AX15" t="n">
         <v>7.5</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="AY15" t="n">
         <v>21</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="AZ15" t="n">
         <v>23</v>
       </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BA15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB15" t="n">
         <v>151</v>
       </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
@@ -971,22 +971,22 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W3" t="n">
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>19</v>
@@ -998,28 +998,28 @@
         <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL3" t="n">
         <v>41</v>
@@ -1052,7 +1052,7 @@
         <v>9.5</v>
       </c>
       <c r="AV3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW3" t="n">
         <v>6</v>
@@ -1064,10 +1064,10 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1693,28 +1693,28 @@
         <v>1.62</v>
       </c>
       <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.44</v>
       </c>
-      <c r="T7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1723,46 +1723,46 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
         <v>23</v>
@@ -1771,19 +1771,19 @@
         <v>51</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX7" t="n">
         <v>41</v>
@@ -1792,10 +1792,10 @@
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1839,16 +1839,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1890,7 +1890,7 @@
         <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
@@ -1917,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
@@ -1926,7 +1926,7 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="n">
         <v>3.5</v>
@@ -1953,7 +1953,7 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -1968,13 +1968,13 @@
         <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
         <v>126</v>
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H15" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3149,10 +3149,10 @@
         <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
@@ -3164,7 +3164,7 @@
         <v>15</v>
       </c>
       <c r="X15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
         <v>19</v>
@@ -3173,31 +3173,31 @@
         <v>67</v>
       </c>
       <c r="AA15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="n">
         <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
         <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO15" t="n">
         <v>34</v>
@@ -3221,22 +3221,22 @@
         <v>41</v>
       </c>
       <c r="AQ15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR15" t="n">
         <v>151</v>
       </c>
       <c r="AS15" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
         <v>3.4</v>
@@ -3245,7 +3245,7 @@
         <v>7.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ15" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>1.95</v>
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -980,7 +980,7 @@
         <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
@@ -998,19 +998,19 @@
         <v>6.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -1126,7 +1126,7 @@
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1153,16 +1153,16 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>23</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
         <v>81</v>
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
         <v>2.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,10 +1505,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1526,10 +1526,10 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1556,13 +1556,13 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>67</v>
@@ -1577,7 +1577,7 @@
         <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1601,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
         <v>34</v>
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
         <v>151</v>
@@ -1675,10 +1675,10 @@
         <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2245,13 +2245,13 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
         <v>7</v>
@@ -2263,13 +2263,13 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2284,13 +2284,13 @@
         <v>201</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
         <v>9.5</v>
@@ -2314,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
@@ -2326,7 +2326,7 @@
         <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>6.5</v>
@@ -2344,7 +2344,7 @@
         <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -947,10 +947,10 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1481,7 +1481,7 @@
         <v>3.8</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
         <v>2.2</v>
@@ -1541,10 +1541,10 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1556,10 +1556,10 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>2.05</v>
@@ -2036,7 +2036,7 @@
         <v>2.2</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2069,13 +2069,13 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>9.5</v>
@@ -2090,7 +2090,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2144,10 +2144,10 @@
         <v>10</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
         <v>2.4</v>
@@ -2245,16 +2245,16 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2290,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2302,7 +2302,7 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
         <v>9.5</v>
@@ -2323,7 +2323,7 @@
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2588,7 +2588,7 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1845,7 +1845,7 @@
         <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
         <v>2.1</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1917,7 +1917,7 @@
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH8" t="n">
         <v>17</v>
@@ -1935,7 +1935,7 @@
         <v>41</v>
       </c>
       <c r="AM8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN8" t="n">
         <v>3.5</v>
@@ -1953,7 +1953,7 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -1968,13 +1968,13 @@
         <v>7.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
         <v>126</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2245,16 +2245,16 @@
         <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2302,10 +2302,10 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>23</v>
@@ -2403,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
@@ -765,10 +765,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -849,7 +849,7 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>29</v>
@@ -876,13 +876,13 @@
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
@@ -1678,7 +1678,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1705,16 +1705,16 @@
         <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>9</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1738,19 +1738,19 @@
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
         <v>81</v>
@@ -1759,7 +1759,7 @@
         <v>3.1</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1795,7 +1795,7 @@
         <v>251</v>
       </c>
       <c r="BA7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -2039,10 +2039,10 @@
         <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2051,10 +2051,10 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2203,7 +2203,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2290,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2311,7 +2311,7 @@
         <v>23</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2323,7 +2323,7 @@
         <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2338,7 +2338,7 @@
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
         <v>151</v>
@@ -3143,10 +3143,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1153,10 +1153,10 @@
         <v>2.25</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1195,13 +1195,13 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1246,7 +1246,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H5" t="n">
         <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
         <v>1.8</v>
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1335,19 +1335,19 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
         <v>4.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>7</v>
@@ -1362,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF5" t="n">
         <v>151</v>
@@ -1374,22 +1374,22 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>51</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM5" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AN5" t="n">
         <v>2.88</v>
@@ -1416,13 +1416,13 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AY5" t="n">
         <v>67</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1493,10 +1493,10 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1532,10 +1532,10 @@
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1583,13 +1583,13 @@
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
@@ -1857,10 +1857,10 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2973,40 +2973,40 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
         <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
         <v>351</v>
@@ -3015,10 +3015,10 @@
         <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
@@ -3027,16 +3027,16 @@
         <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
         <v>29</v>
@@ -3045,34 +3045,34 @@
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
         <v>2.63</v>
       </c>
       <c r="AU14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
         <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,13 +762,13 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -777,10 +777,10 @@
         <v>2.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R2" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S2" t="n">
         <v>1.57</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -870,7 +870,7 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW2" t="n">
         <v>4.75</v>
@@ -1129,10 +1129,10 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>15</v>
@@ -1305,10 +1305,10 @@
         <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1347,16 +1347,16 @@
         <v>4.75</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>51</v>
@@ -1386,7 +1386,7 @@
         <v>251</v>
       </c>
       <c r="AL5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AM5" t="n">
         <v>151</v>
@@ -1407,7 +1407,7 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1493,10 +1493,10 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2051,10 +2051,10 @@
         <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,7 +2251,7 @@
         <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
         <v>7</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2287,16 +2287,16 @@
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM10" t="n">
         <v>51</v>
@@ -2329,10 +2329,10 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,13 +762,13 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -1317,16 +1317,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>2.1</v>
@@ -1493,10 +1493,10 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1556,16 +1556,16 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1577,7 +1577,7 @@
         <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -2949,10 +2949,10 @@
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -3143,10 +3143,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1493,10 +1493,10 @@
         <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -2039,10 +2039,10 @@
         <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -2069,7 +2069,7 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="H12" t="n">
         <v>2.57</v>
       </c>
       <c r="I12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2591,28 +2591,28 @@
         <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
         <v>6.7</v>
@@ -2633,7 +2633,7 @@
         <v>40</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AD12" t="n">
         <v>5.2</v>
@@ -2648,13 +2648,13 @@
         <v>900</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AK12" t="n">
         <v>40</v>
@@ -2684,7 +2684,7 @@
         <v>350</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU12" t="n">
         <v>6.8</v>
@@ -2705,10 +2705,10 @@
         <v>90</v>
       </c>
       <c r="BA12" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BB12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -2069,7 +2069,7 @@
         <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
@@ -2212,7 +2212,7 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -2221,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2233,10 +2233,10 @@
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
         <v>1.5</v>
@@ -2287,16 +2287,16 @@
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>51</v>
@@ -2329,10 +2329,10 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -2212,7 +2212,7 @@
         <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>2.57</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2591,37 +2591,37 @@
         <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R12" t="n">
         <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
         <v>35</v>
@@ -2633,10 +2633,10 @@
         <v>40</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2654,10 +2654,10 @@
         <v>14.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AL12" t="n">
         <v>32</v>
@@ -2666,7 +2666,7 @@
         <v>45</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO12" t="n">
         <v>15.5</v>
@@ -2684,31 +2684,31 @@
         <v>350</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
         <v>70</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -837,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,7 +846,7 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -858,7 +858,7 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1675,10 +1675,10 @@
         <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H8" t="n">
         <v>3.9</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1881,22 +1881,22 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
         <v>7</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>13</v>
@@ -1911,7 +1911,7 @@
         <v>7.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1926,19 +1926,19 @@
         <v>34</v>
       </c>
       <c r="AJ8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
         <v>67</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO8" t="n">
         <v>7.5</v>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1971,16 +1971,16 @@
         <v>34</v>
       </c>
       <c r="AY8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
         <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.38</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2251,7 +2251,7 @@
         <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
         <v>7</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2329,7 +2329,7 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1675,10 +1675,10 @@
         <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1699,10 +1699,10 @@
         <v>2.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
@@ -1762,7 +1762,7 @@
         <v>7.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>23</v>
@@ -1780,7 +1780,7 @@
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
         <v>9</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -2949,10 +2949,10 @@
         <v>5.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.33</v>
@@ -2973,28 +2973,28 @@
         <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
         <v>8.5</v>
@@ -3015,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ14" t="n">
         <v>17</v>
@@ -3027,10 +3027,10 @@
         <v>41</v>
       </c>
       <c r="AM14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
         <v>9</v>
@@ -3057,7 +3057,7 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX14" t="n">
         <v>29</v>
@@ -3069,10 +3069,10 @@
         <v>101</v>
       </c>
       <c r="BA14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
@@ -3122,46 +3122,46 @@
         <v>1.53</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>2.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X15" t="n">
         <v>29</v>
@@ -3179,13 +3179,13 @@
         <v>51</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>67</v>
@@ -3194,16 +3194,16 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI15" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>7</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL15" t="n">
         <v>13</v>
@@ -3227,25 +3227,25 @@
         <v>151</v>
       </c>
       <c r="AS15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
         <v>9</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW15" t="n">
         <v>3.4</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -2221,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H12" t="n">
         <v>2.57</v>
       </c>
       <c r="I12" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
         <v>1.82</v>
@@ -2603,10 +2603,10 @@
         <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.91</v>
@@ -2615,28 +2615,28 @@
         <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB12" t="n">
         <v>40</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2648,10 +2648,10 @@
         <v>900</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AI12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
@@ -2666,10 +2666,10 @@
         <v>45</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
         <v>24</v>
@@ -2684,31 +2684,31 @@
         <v>350</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV12" t="n">
         <v>70</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AX12" t="n">
         <v>18</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA12" t="n">
         <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -2955,16 +2955,16 @@
         <v>8.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>1.44</v>
@@ -2985,7 +2985,7 @@
         <v>7.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
         <v>13</v>
@@ -2994,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>8.5</v>
@@ -3012,13 +3012,13 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI14" t="n">
         <v>23</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK14" t="n">
         <v>51</v>
@@ -3033,13 +3033,13 @@
         <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3060,7 +3060,7 @@
         <v>6.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY14" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1323,10 +1323,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1335,37 +1335,37 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
         <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
         <v>151</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>51</v>
@@ -1383,31 +1383,31 @@
         <v>41</v>
       </c>
       <c r="AK5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL5" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="AO5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1416,13 +1416,13 @@
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
         <v>67</v>
@@ -2952,7 +2952,7 @@
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -3131,10 +3131,10 @@
         <v>2.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>1.83</v>
@@ -1311,10 +1311,10 @@
         <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1341,7 +1341,7 @@
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
         <v>5</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>9.5</v>
@@ -1368,28 +1368,28 @@
         <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>51</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL5" t="n">
         <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AN5" t="n">
         <v>3</v>
@@ -1413,7 +1413,7 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>101</v>
@@ -1425,7 +1425,7 @@
         <v>51</v>
       </c>
       <c r="AY5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
         <v>351</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L9" t="n">
         <v>8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -2063,10 +2063,10 @@
         <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
@@ -2075,10 +2075,10 @@
         <v>6</v>
       </c>
       <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
         <v>9</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2093,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
@@ -2102,34 +2102,34 @@
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM9" t="n">
         <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2156,10 +2156,10 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2588,7 +2588,7 @@
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="K13" t="n">
         <v>2.05</v>
       </c>
       <c r="L13" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>8.699999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.28</v>
@@ -2782,7 +2782,7 @@
         <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
         <v>1.42</v>
@@ -2800,97 +2800,97 @@
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG13" t="n">
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AM13" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
         <v>60</v>
       </c>
       <c r="AS13" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT13" t="n">
         <v>2.45</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV13" t="n">
         <v>65</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AX13" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AY13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ13" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB13" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>
@@ -2902,7 +2902,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>z7ljIJn1</t>
+          <t>8Y1cGcHD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2912,7 +2912,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2922,88 +2922,88 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rampla Juniors</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.75</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="K14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L14" t="n">
         <v>2.1</v>
       </c>
-      <c r="L14" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.67</v>
       </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AA14" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
@@ -3012,43 +3012,43 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK14" t="n">
         <v>11</v>
       </c>
-      <c r="AI14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>51</v>
-      </c>
       <c r="AL14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP14" t="n">
         <v>41</v>
       </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="AR14" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>9</v>
@@ -3057,209 +3057,27 @@
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB14" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>
       </c>
       <c r="BD14" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>8Y1cGcHD</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W15" t="n">
-        <v>13</v>
-      </c>
-      <c r="X15" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD15" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1129,28 +1129,28 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R4" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1159,7 +1159,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1216,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
         <v>81</v>
@@ -1228,7 +1228,7 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1311,10 +1311,10 @@
         <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1475,52 +1475,52 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
         <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1529,10 +1529,10 @@
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1574,7 +1574,7 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
         <v>7.5</v>
@@ -1589,10 +1589,10 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
         <v>9.5</v>
@@ -1601,10 +1601,10 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -2039,16 +2039,16 @@
         <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q9" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1129,10 +1129,10 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1881,55 +1881,55 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
         <v>19</v>
       </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
       <c r="AI8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1938,16 +1938,16 @@
         <v>51</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1959,28 +1959,28 @@
         <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY8" t="n">
         <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -2239,28 +2239,28 @@
         <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>15</v>
@@ -2290,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2302,49 +2302,49 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1129,16 +1129,16 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
@@ -1210,13 +1210,13 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ4" t="n">
         <v>81</v>
@@ -1317,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -2036,13 +2036,13 @@
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -2054,28 +2054,28 @@
         <v>2.05</v>
       </c>
       <c r="R9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z9" t="n">
         <v>9</v>
@@ -2093,7 +2093,7 @@
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
@@ -2102,13 +2102,13 @@
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -2138,7 +2138,7 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
         <v>10</v>
@@ -2159,7 +2159,7 @@
         <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2415,10 +2415,10 @@
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
         <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
         <v>6.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>2.1</v>
@@ -2991,7 +2991,7 @@
         <v>67</v>
       </c>
       <c r="AA14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB14" t="n">
         <v>51</v>
@@ -3021,7 +3021,7 @@
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -3060,7 +3060,7 @@
         <v>3.4</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -762,7 +762,7 @@
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.11</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1129,16 +1129,16 @@
         <v>3.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
         <v>2.7</v>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
         <v>51</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
@@ -1210,13 +1210,13 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ4" t="n">
         <v>81</v>
@@ -1317,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1493,10 +1493,10 @@
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
         <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1881,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
@@ -1893,10 +1893,10 @@
         <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1908,10 +1908,10 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1929,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>21</v>
@@ -1977,7 +1977,7 @@
         <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
         <v>2</v>
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.1</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2427,10 +2427,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
@@ -2472,7 +2472,7 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
         <v>81</v>
@@ -2511,7 +2511,7 @@
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -2979,16 +2979,16 @@
         <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA14" t="n">
         <v>51</v>
@@ -3000,7 +3000,7 @@
         <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE14" t="n">
         <v>21</v>
@@ -3021,7 +3021,7 @@
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -3030,16 +3030,16 @@
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP14" t="n">
         <v>41</v>
       </c>
       <c r="AQ14" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR14" t="n">
         <v>151</v>
@@ -3051,13 +3051,13 @@
         <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX14" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -1311,10 +1311,10 @@
         <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1517,10 +1517,10 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
@@ -1529,16 +1529,16 @@
         <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1565,7 +1565,7 @@
         <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1574,7 +1574,7 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
         <v>7.5</v>
@@ -1589,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
@@ -1601,10 +1601,10 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
         <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.05</v>
@@ -1896,7 +1896,7 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1908,10 +1908,10 @@
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1947,7 +1947,7 @@
         <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1977,7 +1977,7 @@
         <v>151</v>
       </c>
       <c r="BA8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
         <v>351</v>
@@ -2030,19 +2030,19 @@
         <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -2051,10 +2051,10 @@
         <v>3.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2063,13 +2063,13 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X9" t="n">
         <v>6</v>
@@ -2087,13 +2087,13 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>8</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
@@ -2108,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
@@ -2159,7 +2159,7 @@
         <v>201</v>
       </c>
       <c r="BA9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2403,16 +2403,16 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
         <v>2.1</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2961,10 +2961,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3012,13 +3012,13 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI14" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
         <v>9.5</v>
@@ -3027,7 +3027,7 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
         <v>8</v>
@@ -3042,7 +3042,7 @@
         <v>151</v>
       </c>
       <c r="AR14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS14" t="n">
         <v>351</v>
@@ -3060,13 +3060,13 @@
         <v>3.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -765,10 +765,10 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1.83</v>
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1413,7 +1413,7 @@
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
         <v>101</v>
@@ -1425,7 +1425,7 @@
         <v>51</v>
       </c>
       <c r="AY5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ5" t="n">
         <v>351</v>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
@@ -1851,7 +1851,7 @@
         <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1887,13 +1887,13 @@
         <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
         <v>9</v>
@@ -1929,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1941,7 +1941,7 @@
         <v>3.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
         <v>19</v>
@@ -2403,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2436,7 +2436,7 @@
         <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
@@ -2487,13 +2487,13 @@
         <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -2961,10 +2961,10 @@
         <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3012,7 +3012,7 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI14" t="n">
         <v>6.5</v>
@@ -3042,7 +3042,7 @@
         <v>151</v>
       </c>
       <c r="AR14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS14" t="n">
         <v>351</v>
@@ -3060,7 +3060,7 @@
         <v>3.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -753,7 +753,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -888,7 +888,7 @@
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.11</v>
@@ -1135,22 +1135,22 @@
         <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U4" t="n">
         <v>2.2</v>
@@ -1159,7 +1159,7 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>17</v>
@@ -1204,7 +1204,7 @@
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
@@ -1228,7 +1228,7 @@
         <v>351</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1246,7 +1246,7 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
         <v>81</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
         <v>1.83</v>
@@ -1308,25 +1308,25 @@
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1335,10 +1335,10 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1359,13 +1359,13 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
         <v>126</v>
@@ -1398,7 +1398,7 @@
         <v>6.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1407,25 +1407,25 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>51</v>
       </c>
       <c r="AY5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
         <v>351</v>
@@ -1675,22 +1675,22 @@
         <v>8.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
         <v>1.95</v>
@@ -2039,10 +2039,10 @@
         <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2090,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2147,7 +2147,7 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
         <v>7.5</v>
@@ -2403,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2415,10 +2415,10 @@
         <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2442,7 +2442,7 @@
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2451,10 +2451,10 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>8</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -2472,7 +2472,7 @@
         <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
         <v>81</v>
@@ -2481,7 +2481,7 @@
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>3.25</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
@@ -2949,10 +2949,10 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2973,10 +2973,10 @@
         <v>2.75</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W14" t="n">
         <v>15</v>
@@ -3003,10 +3003,10 @@
         <v>8.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
         <v>351</v>
@@ -3015,7 +3015,7 @@
         <v>6</v>
       </c>
       <c r="AI14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
@@ -3030,7 +3030,7 @@
         <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AO14" t="n">
         <v>41</v>
@@ -3042,7 +3042,7 @@
         <v>151</v>
       </c>
       <c r="AR14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS14" t="n">
         <v>351</v>
@@ -3060,7 +3060,7 @@
         <v>3.25</v>
       </c>
       <c r="AX14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -1299,40 +1299,40 @@
         <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>1.83</v>
       </c>
       <c r="K5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
         <v>2.63</v>
@@ -1341,25 +1341,25 @@
         <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>9</v>
@@ -1368,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1377,19 +1377,19 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
         <v>3</v>
@@ -1407,16 +1407,16 @@
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA5" t="n">
         <v>351</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>2.1</v>
@@ -2403,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2433,16 +2433,16 @@
         <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2451,16 +2451,16 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
@@ -2487,10 +2487,10 @@
         <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2505,13 +2505,13 @@
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L13" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="M13" t="n">
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>9.15</v>
+        <v>8.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
         <v>1.42</v>
@@ -2791,106 +2791,106 @@
         <v>2.47</v>
       </c>
       <c r="U13" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="X13" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Z13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA13" t="n">
         <v>14</v>
       </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
       <c r="AB13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="n">
         <v>500</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
         <v>2.45</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
         <v>65</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AX13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AY13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AZ13" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA13" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BB13" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC13" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -804,10 +804,10 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,16 +828,16 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>29</v>
@@ -846,19 +846,19 @@
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS2" t="n">
         <v>301</v>
@@ -876,19 +876,19 @@
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>34</v>
       </c>
       <c r="AZ2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
         <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,67 +929,67 @@
         </is>
       </c>
       <c r="G3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.91</v>
       </c>
-      <c r="H3" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.95</v>
-      </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>41</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
         <v>67</v>
@@ -1010,64 +1010,64 @@
         <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
         <v>41</v>
       </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>251</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>81</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>351</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1159,10 +1159,10 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1192,16 +1192,16 @@
         <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1252,7 +1252,7 @@
         <v>81</v>
       </c>
       <c r="BB4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC4" t="n">
         <v>126</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1323,10 +1323,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1374,13 +1374,13 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK5" t="n">
         <v>151</v>
@@ -1395,13 +1395,13 @@
         <v>3</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1517,28 +1517,28 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
         <v>9</v>
@@ -1556,16 +1556,16 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1574,7 +1574,7 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
         <v>7.5</v>
@@ -1589,22 +1589,22 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1613,7 +1613,7 @@
         <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB6" t="n">
         <v>351</v>
@@ -1857,10 +1857,10 @@
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -2021,40 +2021,40 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L9" t="n">
         <v>9</v>
       </c>
-      <c r="J9" t="n">
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.95</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L9" t="n">
-        <v>8</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.03</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2063,22 +2063,22 @@
         <v>2.75</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
@@ -2087,49 +2087,49 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="n">
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2141,25 +2141,25 @@
         <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV9" t="n">
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA9" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2403,10 +2403,10 @@
         <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2896,188 +2896,6 @@
         <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>8Y1cGcHD</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>URUGUAY - PRIMERA DIVISION</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Penarol</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W14" t="n">
-        <v>15</v>
-      </c>
-      <c r="X14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD14" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
         <v>1.91</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.1</v>
@@ -795,19 +795,19 @@
         <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>41</v>
@@ -828,25 +828,25 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>17</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -947,10 +947,10 @@
         <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>1.5</v>
@@ -1117,7 +1117,7 @@
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1198,7 +1198,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>12</v>
@@ -1305,40 +1305,40 @@
         <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
@@ -1359,7 +1359,7 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
@@ -1392,46 +1392,46 @@
         <v>81</v>
       </c>
       <c r="AN5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
         <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
       </c>
       <c r="AX5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
@@ -1487,7 +1487,7 @@
         <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
@@ -1496,7 +1496,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1529,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>9.5</v>
@@ -1541,28 +1541,28 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>81</v>
@@ -1589,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
@@ -1657,64 +1657,64 @@
         </is>
       </c>
       <c r="G7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.44</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N7" t="n">
-        <v>9</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1723,49 +1723,49 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="n">
         <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
         <v>101</v>
       </c>
-      <c r="AL7" t="n">
-        <v>67</v>
-      </c>
       <c r="AM7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1774,25 +1774,25 @@
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="n">
         <v>11</v>
       </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>9</v>
-      </c>
       <c r="AX7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY7" t="n">
         <v>51</v>
       </c>
       <c r="AZ7" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BA7" t="n">
         <v>301</v>
@@ -1842,7 +1842,7 @@
         <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
         <v>8.5</v>
@@ -1857,10 +1857,10 @@
         <v>7.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.22</v>
@@ -1881,13 +1881,13 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
         <v>6.5</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1920,13 +1920,13 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
         <v>101</v>
@@ -1965,7 +1965,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>
@@ -2051,10 +2051,10 @@
         <v>3.5</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
       </c>
       <c r="S9" t="n">
         <v>1.4</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.1</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2427,106 +2427,106 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
         <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
         <v>151</v>
       </c>
-      <c r="BA11" t="n">
-        <v>201</v>
-      </c>
       <c r="BB11" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -765,10 +765,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
         <v>4.75</v>
@@ -1186,7 +1186,7 @@
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1195,13 +1195,13 @@
         <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1222,7 +1222,7 @@
         <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1237,7 +1237,7 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>4.1</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>2.05</v>
       </c>
       <c r="K6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
         <v>1.4</v>
@@ -1529,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
         <v>9.5</v>
@@ -1541,28 +1541,28 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
         <v>81</v>
@@ -1589,7 +1589,7 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
@@ -1711,7 +1711,7 @@
         <v>5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
         <v>7.5</v>
@@ -1759,7 +1759,7 @@
         <v>3</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1842,7 +1842,7 @@
         <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
         <v>8.5</v>
@@ -1851,7 +1851,7 @@
         <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1896,7 +1896,7 @@
         <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA8" t="n">
         <v>12</v>
@@ -1920,16 +1920,16 @@
         <v>351</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -1965,7 +1965,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
         <v>41</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H9" t="n">
         <v>4.75</v>
       </c>
       <c r="I9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.83</v>
@@ -2036,91 +2036,91 @@
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="n">
         <v>900</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AK9" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO9" t="n">
         <v>6.5</v>
@@ -2132,34 +2132,34 @@
         <v>19</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>201</v>
       </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ9" t="n">
+      <c r="BA9" t="n">
         <v>251</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>301</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2281,7 +2281,7 @@
         <v>67</v>
       </c>
       <c r="AG10" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
@@ -2415,10 +2415,10 @@
         <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2463,7 +2463,7 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
         <v>13</v>
@@ -2567,49 +2567,49 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H12" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="I12" t="n">
         <v>3.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>4.95</v>
+        <v>4.9</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
         <v>1.7</v>
@@ -2618,28 +2618,28 @@
         <v>6.4</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
         <v>90</v>
@@ -2648,19 +2648,19 @@
         <v>900</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AK12" t="n">
         <v>45</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM12" t="n">
         <v>45</v>
@@ -2669,10 +2669,10 @@
         <v>4.35</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ12" t="n">
         <v>75</v>
@@ -2684,10 +2684,10 @@
         <v>350</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
         <v>70</v>
@@ -2699,16 +2699,16 @@
         <v>18</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
         <v>150</v>
       </c>
       <c r="BB12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
         <v>3.75</v>
@@ -765,10 +765,10 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -789,16 +789,16 @@
         <v>2.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
@@ -849,19 +849,19 @@
         <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>34</v>
       </c>
       <c r="AQ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR2" t="n">
         <v>101</v>
       </c>
       <c r="AS2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT2" t="n">
         <v>2.25</v>
@@ -953,10 +953,10 @@
         <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q3" t="n">
         <v>2.5</v>
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.5</v>
@@ -1159,16 +1159,16 @@
         <v>1.62</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
         <v>41</v>
@@ -1210,16 +1210,16 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR4" t="n">
         <v>151</v>
@@ -1299,58 +1299,58 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
         <v>1.8</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA5" t="n">
         <v>13</v>
@@ -1359,16 +1359,16 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1386,49 +1386,49 @@
         <v>151</v>
       </c>
       <c r="AL5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AO5" t="n">
         <v>6</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BA5" t="n">
         <v>201</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
@@ -1517,22 +1517,22 @@
         <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1556,13 +1556,13 @@
         <v>900</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>81</v>
@@ -1589,13 +1589,13 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
         <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1681,16 +1681,16 @@
         <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1851,7 +1851,7 @@
         <v>1.91</v>
       </c>
       <c r="K8" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
         <v>7.5</v>
@@ -1863,16 +1863,16 @@
         <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1881,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
         <v>6.5</v>
@@ -1929,7 +1929,7 @@
         <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
         <v>51</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K9" t="n">
         <v>2.38</v>
       </c>
       <c r="L9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2063,40 +2063,40 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
         <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
         <v>900</v>
@@ -2108,19 +2108,19 @@
         <v>41</v>
       </c>
       <c r="AJ9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK9" t="n">
         <v>101</v>
       </c>
       <c r="AL9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO9" t="n">
         <v>6.5</v>
@@ -2141,13 +2141,13 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX9" t="n">
         <v>41</v>
@@ -2156,10 +2156,10 @@
         <v>41</v>
       </c>
       <c r="AZ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA9" t="n">
         <v>201</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>251</v>
       </c>
       <c r="BB9" t="n">
         <v>501</v>
@@ -2203,61 +2203,61 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z10" t="n">
         <v>13</v>
@@ -2266,25 +2266,25 @@
         <v>15</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>900</v>
+        <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>26</v>
@@ -2302,16 +2302,16 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
@@ -2320,31 +2320,31 @@
         <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2415,10 +2415,10 @@
         <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="H12" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
         <v>1.09</v>
@@ -2603,10 +2603,10 @@
         <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="U12" t="n">
         <v>1.93</v>
@@ -2615,67 +2615,67 @@
         <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="X12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z12" t="n">
         <v>35</v>
       </c>
       <c r="AA12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
         <v>45</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG12" t="n">
         <v>900</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM12" t="n">
         <v>45</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AO12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AP12" t="n">
         <v>25</v>
       </c>
       <c r="AQ12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR12" t="n">
         <v>120</v>
@@ -2687,22 +2687,22 @@
         <v>2.15</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="AX12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA12" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IXMkrg64</t>
+          <t>GfeCaRTq</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bucaramanga</t>
+          <t>Atlante</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2.62</v>
       </c>
       <c r="I2" t="n">
-        <v>2.63</v>
+        <v>2.87</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="L2" t="n">
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="V2" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AG2" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AH2" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AI2" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP2" t="n">
         <v>26</v>
       </c>
-      <c r="AL2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ2" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AR2" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="AS2" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC2" t="n">
         <v>51</v>
       </c>
-      <c r="BA2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>126</v>
-      </c>
       <c r="BD2" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CKikpFyh</t>
+          <t>ltuWJeFb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,718 +910,172 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:35</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>America De Cali</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Once Caldas</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="Q3" t="n">
         <v>1.91</v>
       </c>
-      <c r="L3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R3" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.57</v>
+        <v>1.42</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.47</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="X3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
         <v>9</v>
       </c>
-      <c r="Y3" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AE3" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>500</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AR3" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AS3" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AZ3" t="n">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="BC3" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ie5xZlTj</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>COLOMBIA - PRIMERA A</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Chico</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GfeCaRTq</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>21:30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Celaya</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Atlante</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>80</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>350</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ltuWJeFb</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>23:35</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Leones Negros</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>27</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD6" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GfeCaRTq</t>
+          <t>ltuWJeFb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>23:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -738,344 +738,162 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Celaya</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Atlante</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>2.62</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.87</v>
+        <v>4.8</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="K2" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>5.5</v>
+        <v>8.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.42</v>
       </c>
-      <c r="S2" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T2" t="n">
-        <v>2.18</v>
+        <v>2.47</v>
       </c>
       <c r="U2" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.75</v>
+        <v>7.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>37</v>
+        <v>14.5</v>
       </c>
       <c r="AA2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI2" t="n">
         <v>30</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL2" t="n">
         <v>45</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>30</v>
       </c>
       <c r="AM2" t="n">
         <v>45</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO2" t="n">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
       </c>
       <c r="AV2" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.55</v>
+        <v>6.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AZ2" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="BA2" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BB2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>
       </c>
       <c r="BD2" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ltuWJeFb</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>14/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>23:35</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Leones Negros</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Tapatio</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="W3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>27</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>175</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD3" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,79 +747,79 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="K2" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L2" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>9.35</v>
       </c>
       <c r="N2" t="n">
-        <v>8.9</v>
+        <v>1.03</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>7.9</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
         <v>65</v>
@@ -828,34 +828,34 @@
         <v>500</v>
       </c>
       <c r="AH2" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AL2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM2" t="n">
         <v>45</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>18</v>
       </c>
       <c r="AQ2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>65</v>
@@ -864,28 +864,28 @@
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AV2" t="n">
         <v>65</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AX2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ2" t="n">
         <v>175</v>
       </c>
       <c r="BA2" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB2" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -747,91 +747,91 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J2" t="n">
         <v>2.27</v>
       </c>
       <c r="K2" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L2" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
         <v>9.35</v>
       </c>
-      <c r="N2" t="n">
-        <v>1.03</v>
-      </c>
       <c r="O2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T2" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="U2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
         <v>13.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG2" t="n">
         <v>500</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
@@ -840,10 +840,10 @@
         <v>110</v>
       </c>
       <c r="AL2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="n">
         <v>50</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>45</v>
       </c>
       <c r="AN2" t="n">
         <v>3.45</v>
@@ -852,43 +852,43 @@
         <v>8.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="n">
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="AU2" t="n">
         <v>7.2</v>
       </c>
       <c r="AV2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AX2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY2" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AZ2" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BA2" t="n">
         <v>200</v>
       </c>
       <c r="BB2" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC2" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -765,10 +765,10 @@
         <v>5.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>9.35</v>
+        <v>9.42</v>
       </c>
       <c r="O2" t="n">
         <v>1.28</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:BD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,182 +718,2730 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>IXMkrg64</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Alianza</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bucaramanga</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CKikpFyh</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>America De Cali</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Once Caldas</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ie5xZlTj</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Chico</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Millonarios</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>0tOWRXLN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dep. Pasto</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Patriotas</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hGKOTgiB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Deportes Tolima</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Atl. Nacional</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nDE6vB5T</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Aguilas</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>12</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>301</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4loXfWkA</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ind. Medellin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Envigado</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>KQ43MBqo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Dep. Cali</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>WzmPdhLc</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>QcQctXzH</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>COLOMBIA - PRIMERA A</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Jaguares de Cordoba</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GfeCaRTq</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>21:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Celaya</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Atlante</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>80</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>ltuWJeFb</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>14/11/2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>23:35</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Leones Negros</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Tapatio</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G13" t="n">
         <v>1.7</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H13" t="n">
         <v>3.3</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I13" t="n">
         <v>5.1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J13" t="n">
         <v>2.27</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K13" t="n">
         <v>2.02</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L13" t="n">
         <v>5.3</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M13" t="n">
         <v>1.05</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N13" t="n">
         <v>9.42</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O13" t="n">
         <v>1.28</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P13" t="n">
         <v>3.05</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q13" t="n">
         <v>1.88</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R13" t="n">
         <v>1.82</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S13" t="n">
         <v>1.42</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T13" t="n">
         <v>2.47</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U13" t="n">
         <v>1.75</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V13" t="n">
         <v>1.85</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W13" t="n">
         <v>6.6</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X13" t="n">
         <v>7.9</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y13" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA13" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB13" t="n">
         <v>25</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC13" t="n">
         <v>9.25</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD13" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE13" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF13" t="n">
         <v>70</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG13" t="n">
         <v>500</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH13" t="n">
         <v>14</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI13" t="n">
         <v>32</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ13" t="n">
         <v>16</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK13" t="n">
         <v>110</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL13" t="n">
         <v>55</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM13" t="n">
         <v>50</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN13" t="n">
         <v>3.45</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO13" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP13" t="n">
         <v>17.5</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ13" t="n">
         <v>29</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR13" t="n">
         <v>60</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS13" t="n">
         <v>250</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT13" t="n">
         <v>2.45</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU13" t="n">
         <v>7.2</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV13" t="n">
         <v>70</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW13" t="n">
         <v>6.7</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX13" t="n">
         <v>30</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY13" t="n">
         <v>35</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ13" t="n">
         <v>200</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA13" t="n">
         <v>200</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB13" t="n">
         <v>450</v>
       </c>
-      <c r="BC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="n">
+      <c r="BC13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ei0sKuIl</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>09:45</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Danubio</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>7</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>z7ljIJn1</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Boston River</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Rampla Juniors</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>8Y1cGcHD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>14/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>URUGUAY - PRIMERA DIVISION</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Penarol</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="J16" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W16" t="n">
+        <v>15</v>
+      </c>
+      <c r="X16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD16" t="n">
         <v>51</v>
       </c>
     </row>
